--- a/trunk/documentacion/Casos de Uso/Matriz REQs CUs.xlsx
+++ b/trunk/documentacion/Casos de Uso/Matriz REQs CUs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="15600" windowHeight="8505"/>
+    <workbookView xWindow="14355" yWindow="-15" windowWidth="14400" windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$BT$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$BU$66</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="193">
   <si>
     <t>Nro</t>
   </si>
@@ -500,10 +500,9 @@
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> en donde se informará los comensales que aceptaron, rechazaron y aún no confirmaron sus asistencias al mismo. Se informará los datos del evento (lugar, horario, etc) y donde se podrá agregar comentarios como "Cada uno paga lo suyo o Paga la empresa".</t>
     </r>
@@ -529,13 +528,175 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir el registro de usuarios Comensales.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la Edición del Perfil de usuarios Comensales.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la registración de usuarios administradores de restuarantes.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir agregar restaurantes.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la edición de los datos del administrador de un restaurante.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitirle al usuario el cambio de su contraseña.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitirle al usuario recuperar su contraseña, en caso de que éste la olvide.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitirle al super usuario la modificación de los datos de un restaurante.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la aplicación de múltiples filtros para la búsqueda de restaurante.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la ponderación del servicio brindado por un restaurante.</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar los menúes asociados a un restaurante.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitirle a un comensal la realización de una reserva.</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar los medios de pago de un restaurante.</t>
+  </si>
+  <si>
+    <t>El sistema debe emitir un comprobante de pago.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir ponderar una reserva pendiente.</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar un listado de reservas pendientes de ponderación.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir ponderar una reserva realizada.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la edición de los datos de un restaurante.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la creación de menúes.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la configuración de medios de pago.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la modificación de los datos de una reserva, dentro del horario estipulado.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir marcar un restaurante como favorito.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir comparar menúes.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir comparar restaurantes.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir el agregado de comentarios sobre una reserva.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitr activar una cuenta de usuario, mediante el envío de un email al mismo.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir ubicar en google maps un restaurante.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir el registro de restaurantes.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir verificar la reputación de un comensal.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir verificar la reputación de un restaurante.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir replicar una valoración.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitirle a un comensal seleccionar una reserva con anticipación.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la asociación de una foto a un menú.</t>
+  </si>
+  <si>
+    <t>El sistema debe enviar un correo electrónico al restaurante cada vez que se confirma una reserva.</t>
+  </si>
+  <si>
+    <t>El sistema debe enviar un correo electrónico al restaurante cada vez que se cancela una reserva.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la configuración de una cuenta de correo electrónico para actualización de reservas.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitirle a un comensal ver los datos de las reservas que están pendiente de realizarse. El sistema debe permitirle a un comensal modificar los datos de una reserva, dentro del horario estipulado.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la categorización de un restaurante</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la selección de un evento.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la configuración de eventos.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitirle a un comensal la selección de un evento y el ingreso de las personas que asistirán al mismo.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitirle a un comensal la selección de un evento y la selección de los menúes deseados.</t>
+  </si>
+  <si>
+    <t>El sistema debe enviar un correo electrónico a los participantes de un evento.</t>
+  </si>
+  <si>
+    <t>El sistema debe pemitir la aceptación ó rechazo de un evento. El sistema debe permitir la selección de un menú asociado a un evento.</t>
+  </si>
+  <si>
+    <t>El sistema debe registrar y notificar el rechazo de un evento.</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar una pagina de un evento en donde se visualicen los comensales que asistirán y los comentarios del evento.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir visualizar la valoración de un usuario incluido en un evento.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir a un usuario ingresar a su valoración.</t>
+  </si>
+  <si>
+    <t>El sistema debe brindar estadísticas a restaurantes en un período determinado.</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>El sistema debe brindar estadísticas a comensales en un período determinado.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitirle al super usuario la modificación de los datos de un comensal.</t>
+  </si>
+  <si>
+    <t>El sistema debe brindar indicadores al super usuario en un período determinado.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitirle al super usuario la modificación de todos los perfiles de usuario del sistema.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,10 +707,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -563,10 +723,9 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -582,46 +741,58 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="4" tint="-0.249977111117893"/>
+      <color indexed="62"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
+      <color indexed="62"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -642,12 +813,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -656,7 +827,78 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -665,6 +907,17 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -690,167 +943,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -880,6 +976,21 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -889,9 +1000,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -949,6 +1064,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -957,126 +1128,135 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1086,15 +1266,47 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1108,7 +1320,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1392,826 +1604,832 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BU66"/>
+  <dimension ref="A1:BV68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="N52" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S53" sqref="S53"/>
+      <selection pane="bottomRight" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="11" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="18.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8" style="24" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14" style="24" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.7109375" style="24" customWidth="1"/>
-    <col min="37" max="37" width="6.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="7.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="17" style="24" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="6.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="9.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="19.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="14.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="18.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="21" style="24" bestFit="1" customWidth="1"/>
-    <col min="68" max="70" width="17.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="21" style="24" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="21" style="21" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="11.42578125" style="11"/>
+    <col min="3" max="3" width="34.5703125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" style="39" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="11" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="18.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8" style="24" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14" style="24" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7109375" style="24" customWidth="1"/>
+    <col min="38" max="38" width="6.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="7.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="21.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17" style="24" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="9.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="19.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="21" style="24" bestFit="1" customWidth="1"/>
+    <col min="69" max="71" width="17.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="21" style="24" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="21" style="21" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8" style="11" bestFit="1" customWidth="1"/>
+    <col min="75" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="4" customFormat="1" ht="15.75">
+    <row r="1" spans="1:74" s="4" customFormat="1" ht="15.75">
       <c r="A1" s="6"/>
       <c r="B1" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="44"/>
-      <c r="D1" s="8">
+      <c r="D1" s="44"/>
+      <c r="E1" s="8">
         <v>1</v>
       </c>
-      <c r="E1" s="8">
+      <c r="F1" s="8">
         <v>2</v>
       </c>
-      <c r="F1" s="8">
+      <c r="G1" s="8">
         <v>3</v>
       </c>
-      <c r="G1" s="8">
+      <c r="H1" s="8">
         <v>4</v>
       </c>
-      <c r="H1" s="8">
+      <c r="I1" s="8">
         <v>5</v>
       </c>
-      <c r="I1" s="8">
+      <c r="J1" s="8">
         <v>6</v>
       </c>
-      <c r="J1" s="8">
+      <c r="K1" s="8">
         <v>7</v>
       </c>
-      <c r="K1" s="8">
+      <c r="L1" s="8">
         <v>8</v>
       </c>
-      <c r="L1" s="8">
+      <c r="M1" s="8">
         <v>9</v>
       </c>
-      <c r="M1" s="8">
+      <c r="N1" s="8">
         <v>10</v>
       </c>
-      <c r="N1" s="8">
+      <c r="O1" s="8">
         <v>11</v>
       </c>
-      <c r="O1" s="8">
+      <c r="P1" s="8">
         <v>12</v>
       </c>
-      <c r="P1" s="8">
+      <c r="Q1" s="8">
         <v>13</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="R1" s="8">
         <v>14</v>
       </c>
-      <c r="R1" s="8">
+      <c r="S1" s="8">
         <v>15</v>
       </c>
-      <c r="S1" s="8">
+      <c r="T1" s="8">
         <v>16</v>
       </c>
-      <c r="T1" s="8">
+      <c r="U1" s="8">
         <v>17</v>
       </c>
-      <c r="U1" s="8">
+      <c r="V1" s="8">
         <v>18</v>
       </c>
-      <c r="V1" s="8">
+      <c r="W1" s="8">
         <v>19</v>
       </c>
-      <c r="W1" s="8">
+      <c r="X1" s="8">
         <v>20</v>
       </c>
-      <c r="X1" s="8">
+      <c r="Y1" s="8">
         <v>21</v>
       </c>
-      <c r="Y1" s="8">
+      <c r="Z1" s="8">
         <v>22</v>
       </c>
-      <c r="Z1" s="8">
+      <c r="AA1" s="8">
         <v>23</v>
       </c>
-      <c r="AA1" s="8">
+      <c r="AB1" s="8">
         <v>24</v>
       </c>
-      <c r="AB1" s="8">
+      <c r="AC1" s="8">
         <v>25</v>
       </c>
-      <c r="AC1" s="8">
+      <c r="AD1" s="8">
         <v>26</v>
       </c>
-      <c r="AD1" s="8">
+      <c r="AE1" s="8">
         <v>27</v>
       </c>
-      <c r="AE1" s="8">
+      <c r="AF1" s="8">
         <v>28</v>
       </c>
-      <c r="AF1" s="8">
+      <c r="AG1" s="8">
         <v>29</v>
       </c>
-      <c r="AG1" s="8">
+      <c r="AH1" s="8">
         <v>30</v>
       </c>
-      <c r="AH1" s="8">
+      <c r="AI1" s="8">
         <v>31</v>
       </c>
-      <c r="AI1" s="8">
+      <c r="AJ1" s="8">
         <v>32</v>
       </c>
-      <c r="AJ1" s="8">
+      <c r="AK1" s="8">
         <v>33</v>
       </c>
-      <c r="AK1" s="8">
+      <c r="AL1" s="8">
         <v>34</v>
       </c>
-      <c r="AL1" s="8">
+      <c r="AM1" s="8">
         <v>35</v>
       </c>
-      <c r="AM1" s="8">
+      <c r="AN1" s="8">
         <v>36</v>
       </c>
-      <c r="AN1" s="8">
+      <c r="AO1" s="8">
         <v>37</v>
       </c>
-      <c r="AO1" s="8">
+      <c r="AP1" s="8">
         <v>38</v>
       </c>
-      <c r="AP1" s="8">
+      <c r="AQ1" s="8">
         <v>39</v>
       </c>
-      <c r="AQ1" s="8">
+      <c r="AR1" s="8">
         <v>40</v>
       </c>
-      <c r="AR1" s="8">
+      <c r="AS1" s="8">
         <v>41</v>
       </c>
-      <c r="AS1" s="8">
+      <c r="AT1" s="8">
         <v>42</v>
       </c>
-      <c r="AT1" s="8">
+      <c r="AU1" s="8">
         <v>43</v>
       </c>
-      <c r="AU1" s="8">
+      <c r="AV1" s="8">
         <v>44</v>
       </c>
-      <c r="AV1" s="8">
+      <c r="AW1" s="8">
         <v>45</v>
       </c>
-      <c r="AW1" s="8">
+      <c r="AX1" s="8">
         <v>46</v>
       </c>
-      <c r="AX1" s="8">
+      <c r="AY1" s="8">
         <v>47</v>
       </c>
-      <c r="AY1" s="8">
+      <c r="AZ1" s="8">
         <v>48</v>
       </c>
-      <c r="AZ1" s="8">
+      <c r="BA1" s="8">
         <v>49</v>
       </c>
-      <c r="BA1" s="8">
+      <c r="BB1" s="8">
         <v>50</v>
       </c>
-      <c r="BB1" s="8">
+      <c r="BC1" s="8">
         <v>51</v>
       </c>
-      <c r="BC1" s="8">
+      <c r="BD1" s="8">
         <v>52</v>
       </c>
-      <c r="BD1" s="8">
+      <c r="BE1" s="8">
         <v>53</v>
       </c>
-      <c r="BE1" s="8">
+      <c r="BF1" s="8">
         <v>54</v>
       </c>
-      <c r="BF1" s="8">
+      <c r="BG1" s="8">
         <v>55</v>
       </c>
-      <c r="BG1" s="8">
+      <c r="BH1" s="8">
         <v>56</v>
       </c>
-      <c r="BH1" s="8">
+      <c r="BI1" s="8">
         <v>57</v>
       </c>
-      <c r="BI1" s="8">
+      <c r="BJ1" s="8">
         <v>58</v>
       </c>
-      <c r="BJ1" s="8">
+      <c r="BK1" s="8">
         <v>59</v>
       </c>
-      <c r="BK1" s="8">
+      <c r="BL1" s="8">
         <v>60</v>
       </c>
-      <c r="BL1" s="8">
+      <c r="BM1" s="8">
         <v>61</v>
       </c>
-      <c r="BM1" s="8">
+      <c r="BN1" s="8">
         <v>62</v>
       </c>
-      <c r="BN1" s="8">
+      <c r="BO1" s="8">
         <v>63</v>
       </c>
-      <c r="BO1" s="8">
+      <c r="BP1" s="8">
         <v>64</v>
       </c>
-      <c r="BP1" s="8">
+      <c r="BQ1" s="8">
         <v>65</v>
       </c>
-      <c r="BQ1" s="8">
+      <c r="BR1" s="8">
         <v>66</v>
       </c>
-      <c r="BR1" s="8">
+      <c r="BS1" s="8">
         <v>67</v>
       </c>
-      <c r="BS1" s="8">
+      <c r="BT1" s="8">
         <v>68</v>
       </c>
-      <c r="BT1" s="8">
+      <c r="BU1" s="8">
         <v>69</v>
       </c>
-      <c r="BU1" s="37">
+      <c r="BV1" s="37">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:73" s="5" customFormat="1" ht="45.75" thickBot="1">
+    <row r="2" spans="1:74" s="5" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="N2" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="P2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="Q2" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="S2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="U2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="V2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="X2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="Y2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Z2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="AA2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="AB2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" s="17" t="s">
+      <c r="AC2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="17" t="s">
+      <c r="AD2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="AE2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="17" t="s">
+      <c r="AF2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AF2" s="17" t="s">
+      <c r="AG2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AG2" s="17" t="s">
+      <c r="AH2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AH2" s="17" t="s">
+      <c r="AI2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AJ2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AJ2" s="17" t="s">
+      <c r="AK2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AK2" s="17" t="s">
+      <c r="AL2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="AL2" s="17" t="s">
+      <c r="AM2" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="AM2" s="17" t="s">
+      <c r="AN2" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="AN2" s="17" t="s">
+      <c r="AO2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AO2" s="17" t="s">
+      <c r="AP2" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AP2" s="17" t="s">
+      <c r="AQ2" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="AQ2" s="17" t="s">
+      <c r="AR2" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="AR2" s="17" t="s">
+      <c r="AS2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="AS2" s="17" t="s">
+      <c r="AT2" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="AT2" s="17" t="s">
+      <c r="AU2" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="AU2" s="17" t="s">
+      <c r="AV2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="AV2" s="17" t="s">
+      <c r="AW2" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="AW2" s="17" t="s">
+      <c r="AX2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="AX2" s="17" t="s">
+      <c r="AY2" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="AY2" s="17" t="s">
+      <c r="AZ2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AZ2" s="17" t="s">
+      <c r="BA2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="BA2" s="17" t="s">
+      <c r="BB2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="BB2" s="17" t="s">
+      <c r="BC2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="BC2" s="17" t="s">
+      <c r="BD2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="BD2" s="17" t="s">
+      <c r="BE2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="BE2" s="17" t="s">
+      <c r="BF2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="BF2" s="17" t="s">
+      <c r="BG2" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="BG2" s="17" t="s">
+      <c r="BH2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="BH2" s="17" t="s">
+      <c r="BI2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="BI2" s="17" t="s">
+      <c r="BJ2" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="BJ2" s="17" t="s">
+      <c r="BK2" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="BK2" s="17" t="s">
+      <c r="BL2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="BL2" s="17" t="s">
+      <c r="BM2" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="BM2" s="17" t="s">
+      <c r="BN2" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="BN2" s="17" t="s">
+      <c r="BO2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="BO2" s="17" t="s">
+      <c r="BP2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="BP2" s="17" t="s">
+      <c r="BQ2" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="BQ2" s="17" t="s">
+      <c r="BR2" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="BR2" s="17" t="s">
+      <c r="BS2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="BS2" s="17" t="s">
+      <c r="BT2" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="BT2" s="17" t="s">
+      <c r="BU2" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:73" s="43" customFormat="1" ht="16.5" thickBot="1">
+    <row r="3" spans="1:74" s="43" customFormat="1" ht="16.5" thickBot="1">
       <c r="A3" s="40"/>
       <c r="B3" s="41" t="s">
         <v>137</v>
       </c>
       <c r="C3" s="41"/>
-      <c r="D3" s="42">
-        <f>COUNTIF(D4:D66,"x")</f>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42">
+        <f t="shared" ref="E3:AJ3" si="0">COUNTIF(E4:E66,"x")</f>
         <v>1</v>
       </c>
-      <c r="E3" s="42">
-        <f>COUNTIF(E4:E66,"x")</f>
+      <c r="F3" s="42">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F3" s="42">
-        <f>COUNTIF(F4:F66,"x")</f>
+      <c r="G3" s="42">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G3" s="42">
-        <f>COUNTIF(G4:G66,"x")</f>
+      <c r="H3" s="42">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H3" s="42">
-        <f>COUNTIF(H4:H66,"x")</f>
+      <c r="I3" s="42">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I3" s="42">
-        <f>COUNTIF(I4:I66,"x")</f>
+      <c r="J3" s="42">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J3" s="42">
-        <f>COUNTIF(J4:J66,"x")</f>
+      <c r="K3" s="42">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K3" s="42">
-        <f>COUNTIF(K4:K66,"x")</f>
+      <c r="L3" s="42">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L3" s="42">
-        <f>COUNTIF(L4:L66,"x")</f>
+      <c r="M3" s="42">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M3" s="42">
-        <f>COUNTIF(M4:M66,"x")</f>
+      <c r="N3" s="42">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N3" s="42">
-        <f>COUNTIF(N4:N66,"x")</f>
+      <c r="O3" s="42">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O3" s="42">
-        <f>COUNTIF(O4:O66,"x")</f>
+      <c r="P3" s="42">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P3" s="42">
-        <f>COUNTIF(P4:P66,"x")</f>
+      <c r="Q3" s="42">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="Q3" s="42">
-        <f>COUNTIF(Q4:Q66,"x")</f>
+      <c r="R3" s="42">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R3" s="42">
-        <f>COUNTIF(R4:R66,"x")</f>
+      <c r="S3" s="42">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="S3" s="42">
-        <f>COUNTIF(S4:S66,"x")</f>
+      <c r="T3" s="42">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T3" s="42">
-        <f>COUNTIF(T4:T66,"x")</f>
+      <c r="U3" s="42">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="U3" s="42">
-        <f>COUNTIF(U4:U66,"x")</f>
+      <c r="V3" s="42">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="V3" s="42">
-        <f>COUNTIF(V4:V66,"x")</f>
+      <c r="W3" s="42">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W3" s="42">
-        <f>COUNTIF(W4:W66,"x")</f>
+      <c r="X3" s="42">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X3" s="42">
-        <f>COUNTIF(X4:X66,"x")</f>
+      <c r="Y3" s="42">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y3" s="42">
-        <f>COUNTIF(Y4:Y66,"x")</f>
+      <c r="Z3" s="42">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Z3" s="42">
-        <f>COUNTIF(Z4:Z66,"x")</f>
+      <c r="AA3" s="42">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AA3" s="42">
-        <f>COUNTIF(AA4:AA66,"x")</f>
+      <c r="AB3" s="42">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AB3" s="42">
-        <f>COUNTIF(AB4:AB66,"x")</f>
+      <c r="AC3" s="42">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC3" s="42">
-        <f>COUNTIF(AC4:AC66,"x")</f>
+      <c r="AD3" s="42">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AD3" s="42">
-        <f>COUNTIF(AD4:AD66,"x")</f>
+      <c r="AE3" s="42">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE3" s="42">
-        <f>COUNTIF(AE4:AE66,"x")</f>
+      <c r="AF3" s="42">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF3" s="42">
-        <f>COUNTIF(AF4:AF66,"x")</f>
+      <c r="AG3" s="42">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG3" s="42">
-        <f>COUNTIF(AG4:AG66,"x")</f>
+      <c r="AH3" s="42">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AH3" s="42">
-        <f>COUNTIF(AH4:AH66,"x")</f>
+      <c r="AI3" s="42">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI3" s="42">
-        <f>COUNTIF(AI4:AI66,"x")</f>
+      <c r="AJ3" s="42">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AJ3" s="42">
-        <f>COUNTIF(AJ4:AJ66,"x")</f>
+      <c r="AK3" s="42">
+        <f t="shared" ref="AK3:BP3" si="1">COUNTIF(AK4:AK66,"x")</f>
         <v>0</v>
       </c>
-      <c r="AK3" s="42">
-        <f>COUNTIF(AK4:AK66,"x")</f>
+      <c r="AL3" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AL3" s="42">
-        <f>COUNTIF(AL4:AL66,"x")</f>
+      <c r="AM3" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AM3" s="42">
-        <f>COUNTIF(AM4:AM66,"x")</f>
+      <c r="AN3" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AN3" s="42">
-        <f>COUNTIF(AN4:AN66,"x")</f>
+      <c r="AO3" s="42">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AO3" s="42">
-        <f>COUNTIF(AO4:AO66,"x")</f>
+      <c r="AP3" s="42">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AP3" s="42">
-        <f>COUNTIF(AP4:AP66,"x")</f>
+      <c r="AQ3" s="42">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AQ3" s="42">
-        <f>COUNTIF(AQ4:AQ66,"x")</f>
+      <c r="AR3" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AR3" s="42">
-        <f>COUNTIF(AR4:AR66,"x")</f>
+      <c r="AS3" s="42">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS3" s="42">
-        <f>COUNTIF(AS4:AS66,"x")</f>
+      <c r="AT3" s="42">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AT3" s="42">
-        <f>COUNTIF(AT4:AT66,"x")</f>
+      <c r="AU3" s="42">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AU3" s="42">
-        <f>COUNTIF(AU4:AU66,"x")</f>
+      <c r="AV3" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AV3" s="42">
-        <f>COUNTIF(AV4:AV66,"x")</f>
+      <c r="AW3" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AW3" s="42">
-        <f>COUNTIF(AW4:AW66,"x")</f>
+      <c r="AX3" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AX3" s="42">
-        <f>COUNTIF(AX4:AX66,"x")</f>
+      <c r="AY3" s="42">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AY3" s="42">
-        <f>COUNTIF(AY4:AY66,"x")</f>
+      <c r="AZ3" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AZ3" s="42">
-        <f>COUNTIF(AZ4:AZ66,"x")</f>
+      <c r="BA3" s="42">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BA3" s="42">
-        <f>COUNTIF(BA4:BA66,"x")</f>
+      <c r="BB3" s="42">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BB3" s="42">
-        <f>COUNTIF(BB4:BB66,"x")</f>
+      <c r="BC3" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BC3" s="42">
-        <f>COUNTIF(BC4:BC66,"x")</f>
+      <c r="BD3" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BD3" s="42">
-        <f>COUNTIF(BD4:BD66,"x")</f>
+      <c r="BE3" s="42">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BE3" s="42">
-        <f>COUNTIF(BE4:BE66,"x")</f>
+      <c r="BF3" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BF3" s="42">
-        <f>COUNTIF(BF4:BF66,"x")</f>
+      <c r="BG3" s="42">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BG3" s="42">
-        <f>COUNTIF(BG4:BG66,"x")</f>
+      <c r="BH3" s="42">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BH3" s="42">
-        <f>COUNTIF(BH4:BH66,"x")</f>
+      <c r="BI3" s="42">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BI3" s="42">
-        <f>COUNTIF(BI4:BI66,"x")</f>
+      <c r="BJ3" s="42">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BJ3" s="42">
-        <f>COUNTIF(BJ4:BJ66,"x")</f>
+      <c r="BK3" s="42">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BK3" s="42">
-        <f>COUNTIF(BK4:BK66,"x")</f>
+      <c r="BL3" s="42">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BL3" s="42">
-        <f>COUNTIF(BL4:BL66,"x")</f>
+      <c r="BM3" s="42">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BM3" s="42">
-        <f>COUNTIF(BM4:BM66,"x")</f>
+      <c r="BN3" s="42">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BN3" s="42">
-        <f>COUNTIF(BN4:BN66,"x")</f>
+      <c r="BO3" s="42">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BO3" s="42">
-        <f>COUNTIF(BO4:BO66,"x")</f>
+      <c r="BP3" s="42">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BP3" s="42">
-        <f>COUNTIF(BP4:BP66,"x")</f>
+      <c r="BQ3" s="42">
+        <f t="shared" ref="BQ3:BV3" si="2">COUNTIF(BQ4:BQ66,"x")</f>
         <v>1</v>
       </c>
-      <c r="BQ3" s="42">
-        <f>COUNTIF(BQ4:BQ66,"x")</f>
+      <c r="BR3" s="42">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BR3" s="42">
-        <f>COUNTIF(BR4:BR66,"x")</f>
+      <c r="BS3" s="42">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BS3" s="42">
-        <f>COUNTIF(BS4:BS66,"x")</f>
+      <c r="BT3" s="42">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BT3" s="42">
-        <f>COUNTIF(BT4:BT66,"x")</f>
+      <c r="BU3" s="42">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BU3" s="42">
-        <f>COUNTIF(BU4:BU66,"x")</f>
+      <c r="BV3" s="42">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:73" ht="15.75">
+    <row r="4" spans="1:74" ht="15.75">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="45">
-        <f>COUNTIF(D4:DA4,"x")</f>
+      <c r="C4" s="47"/>
+      <c r="D4" s="45">
+        <f>COUNTIF(E4:DB4,"x")</f>
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
@@ -2277,40 +2495,43 @@
       <c r="BP4" s="19"/>
       <c r="BQ4" s="19"/>
       <c r="BR4" s="19"/>
-      <c r="BS4" s="29"/>
-      <c r="BT4" s="19"/>
-      <c r="BU4" s="34"/>
+      <c r="BS4" s="19"/>
+      <c r="BT4" s="29"/>
+      <c r="BU4" s="19"/>
+      <c r="BV4" s="34"/>
     </row>
-    <row r="5" spans="1:73" ht="48.75">
+    <row r="5" spans="1:74" ht="48.75">
       <c r="A5" s="10">
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="45">
-        <f t="shared" ref="C5:C66" si="0">COUNTIF(D5:DA5,"x")</f>
+      <c r="C5" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="45">
+        <f t="shared" ref="D5:D66" si="3">COUNTIF(E5:DB5,"x")</f>
         <v>4</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="G5" s="21"/>
       <c r="H5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="J5" s="21"/>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="21"/>
+      <c r="N5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="21"/>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -2367,35 +2588,38 @@
       <c r="BP5" s="21"/>
       <c r="BQ5" s="21"/>
       <c r="BR5" s="21"/>
-      <c r="BS5" s="30"/>
-      <c r="BU5" s="35"/>
+      <c r="BS5" s="21"/>
+      <c r="BT5" s="30"/>
+      <c r="BV5" s="35"/>
     </row>
-    <row r="6" spans="1:73" ht="48.75">
+    <row r="6" spans="1:74" ht="48.75">
       <c r="A6" s="10">
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="45">
-        <f t="shared" si="0"/>
+      <c r="C6" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="21"/>
+      <c r="N6" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="N6" s="21"/>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -2452,22 +2676,25 @@
       <c r="BP6" s="21"/>
       <c r="BQ6" s="21"/>
       <c r="BR6" s="21"/>
-      <c r="BS6" s="30"/>
-      <c r="BU6" s="35"/>
+      <c r="BS6" s="21"/>
+      <c r="BT6" s="30"/>
+      <c r="BV6" s="35"/>
     </row>
-    <row r="7" spans="1:73" ht="36.75">
+    <row r="7" spans="1:74" ht="38.25">
       <c r="A7" s="10">
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="45">
-        <f t="shared" si="0"/>
+      <c r="C7" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="45">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
@@ -2478,16 +2705,16 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
-      <c r="P7" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="P7" s="21"/>
       <c r="Q7" s="21" t="s">
         <v>24</v>
       </c>
       <c r="R7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="21"/>
+      <c r="S7" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
@@ -2539,22 +2766,25 @@
       <c r="BP7" s="21"/>
       <c r="BQ7" s="21"/>
       <c r="BR7" s="21"/>
-      <c r="BS7" s="30"/>
-      <c r="BU7" s="35"/>
+      <c r="BS7" s="21"/>
+      <c r="BT7" s="30"/>
+      <c r="BV7" s="35"/>
     </row>
-    <row r="8" spans="1:73" ht="48.75">
+    <row r="8" spans="1:74" ht="48.75">
       <c r="A8" s="10">
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="45">
-        <f t="shared" si="0"/>
+      <c r="C8" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="45">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -2565,10 +2795,10 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
-      <c r="P8" s="21" t="s">
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
@@ -2592,10 +2822,10 @@
       <c r="AL8" s="21"/>
       <c r="AM8" s="21"/>
       <c r="AN8" s="21"/>
-      <c r="AO8" s="21" t="s">
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AP8" s="21"/>
       <c r="AQ8" s="21"/>
       <c r="AR8" s="21"/>
       <c r="AS8" s="21"/>
@@ -2624,22 +2854,25 @@
       <c r="BP8" s="21"/>
       <c r="BQ8" s="21"/>
       <c r="BR8" s="21"/>
-      <c r="BS8" s="30"/>
-      <c r="BU8" s="35"/>
+      <c r="BS8" s="21"/>
+      <c r="BT8" s="30"/>
+      <c r="BV8" s="35"/>
     </row>
-    <row r="9" spans="1:73" ht="60.75">
+    <row r="9" spans="1:74" ht="60.75">
       <c r="A9" s="10">
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="45">
-        <f t="shared" si="0"/>
+      <c r="C9" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="45">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
@@ -2650,14 +2883,14 @@
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21" t="s">
+      <c r="R9" s="21"/>
+      <c r="S9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="21"/>
       <c r="T9" s="21"/>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
@@ -2687,16 +2920,16 @@
       <c r="AT9" s="21"/>
       <c r="AU9" s="21"/>
       <c r="AV9" s="21"/>
-      <c r="AW9" s="21" t="s">
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AX9" s="21" t="s">
+      <c r="AY9" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AY9" s="21" t="s">
+      <c r="AZ9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AZ9" s="21"/>
       <c r="BA9" s="21"/>
       <c r="BB9" s="21"/>
       <c r="BC9" s="21"/>
@@ -2715,22 +2948,25 @@
       <c r="BP9" s="21"/>
       <c r="BQ9" s="21"/>
       <c r="BR9" s="21"/>
-      <c r="BS9" s="30"/>
-      <c r="BU9" s="35"/>
+      <c r="BS9" s="21"/>
+      <c r="BT9" s="30"/>
+      <c r="BV9" s="35"/>
     </row>
-    <row r="10" spans="1:73" ht="60.75">
+    <row r="10" spans="1:74" ht="60.75">
       <c r="A10" s="10">
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="45">
-        <f t="shared" si="0"/>
+      <c r="C10" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
@@ -2741,14 +2977,14 @@
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="O10" s="21"/>
-      <c r="P10" s="21" t="s">
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21" t="s">
+      <c r="R10" s="21"/>
+      <c r="S10" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="S10" s="21"/>
       <c r="T10" s="21"/>
       <c r="U10" s="21"/>
       <c r="V10" s="21"/>
@@ -2778,16 +3014,16 @@
       <c r="AT10" s="21"/>
       <c r="AU10" s="21"/>
       <c r="AV10" s="21"/>
-      <c r="AW10" s="21" t="s">
-        <v>138</v>
-      </c>
+      <c r="AW10" s="21"/>
       <c r="AX10" s="21" t="s">
         <v>138</v>
       </c>
       <c r="AY10" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AZ10" s="21"/>
+      <c r="AZ10" s="21" t="s">
+        <v>138</v>
+      </c>
       <c r="BA10" s="21"/>
       <c r="BB10" s="21"/>
       <c r="BC10" s="21"/>
@@ -2806,22 +3042,25 @@
       <c r="BP10" s="21"/>
       <c r="BQ10" s="21"/>
       <c r="BR10" s="21"/>
-      <c r="BS10" s="30"/>
-      <c r="BU10" s="35"/>
+      <c r="BS10" s="21"/>
+      <c r="BT10" s="30"/>
+      <c r="BV10" s="35"/>
     </row>
-    <row r="11" spans="1:73" ht="36.75">
+    <row r="11" spans="1:74" ht="36.75">
       <c r="A11" s="10">
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="45">
-        <f t="shared" si="0"/>
+      <c r="C11" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
@@ -2857,10 +3096,10 @@
       <c r="AL11" s="21"/>
       <c r="AM11" s="21"/>
       <c r="AN11" s="21"/>
-      <c r="AO11" s="21" t="s">
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AP11" s="21"/>
       <c r="AQ11" s="21"/>
       <c r="AR11" s="21"/>
       <c r="AS11" s="21"/>
@@ -2889,32 +3128,35 @@
       <c r="BP11" s="21"/>
       <c r="BQ11" s="21"/>
       <c r="BR11" s="21"/>
-      <c r="BS11" s="30"/>
-      <c r="BU11" s="35"/>
+      <c r="BS11" s="21"/>
+      <c r="BT11" s="30"/>
+      <c r="BV11" s="35"/>
     </row>
-    <row r="12" spans="1:73" ht="24.75">
+    <row r="12" spans="1:74" ht="24.75">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="45">
-        <f t="shared" si="0"/>
+      <c r="C12" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="45">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="21"/>
+      <c r="K12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
@@ -2928,10 +3170,10 @@
       <c r="V12" s="21"/>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
-      <c r="Y12" s="21" t="s">
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="Z12" s="21"/>
       <c r="AA12" s="21"/>
       <c r="AB12" s="21"/>
       <c r="AC12" s="21"/>
@@ -2976,22 +3218,25 @@
       <c r="BP12" s="21"/>
       <c r="BQ12" s="21"/>
       <c r="BR12" s="21"/>
-      <c r="BS12" s="30"/>
-      <c r="BU12" s="35"/>
+      <c r="BS12" s="21"/>
+      <c r="BT12" s="30"/>
+      <c r="BV12" s="35"/>
     </row>
-    <row r="13" spans="1:73" ht="36.75">
+    <row r="13" spans="1:74" ht="38.25">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="45">
-        <f t="shared" si="0"/>
+      <c r="C13" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="45">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
@@ -3001,10 +3246,10 @@
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="21"/>
+      <c r="P13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
@@ -3013,10 +3258,10 @@
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
-      <c r="Y13" s="21" t="s">
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="Z13" s="21"/>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21"/>
       <c r="AC13" s="21"/>
@@ -3045,10 +3290,10 @@
       <c r="AZ13" s="21"/>
       <c r="BA13" s="21"/>
       <c r="BB13" s="21"/>
-      <c r="BC13" s="21" t="s">
+      <c r="BC13" s="21"/>
+      <c r="BD13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="BD13" s="21"/>
       <c r="BE13" s="21"/>
       <c r="BF13" s="21"/>
       <c r="BG13" s="21"/>
@@ -3063,22 +3308,25 @@
       <c r="BP13" s="21"/>
       <c r="BQ13" s="21"/>
       <c r="BR13" s="21"/>
-      <c r="BS13" s="30"/>
-      <c r="BU13" s="35"/>
+      <c r="BS13" s="21"/>
+      <c r="BT13" s="30"/>
+      <c r="BV13" s="35"/>
     </row>
-    <row r="14" spans="1:73" ht="24.75">
+    <row r="14" spans="1:74" ht="38.25">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="45">
-        <f t="shared" si="0"/>
+      <c r="C14" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
@@ -3144,22 +3392,25 @@
       <c r="BP14" s="21"/>
       <c r="BQ14" s="21"/>
       <c r="BR14" s="21"/>
-      <c r="BS14" s="30"/>
-      <c r="BU14" s="35"/>
+      <c r="BS14" s="21"/>
+      <c r="BT14" s="30"/>
+      <c r="BV14" s="35"/>
     </row>
-    <row r="15" spans="1:73" ht="36.75">
+    <row r="15" spans="1:74" ht="38.25">
       <c r="A15" s="10">
         <v>16</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="45">
-        <f t="shared" si="0"/>
+      <c r="C15" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="45">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -3174,13 +3425,13 @@
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
-      <c r="T15" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="T15" s="21"/>
       <c r="U15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="V15" s="21"/>
+      <c r="V15" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="W15" s="21"/>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -3229,22 +3480,25 @@
       <c r="BP15" s="21"/>
       <c r="BQ15" s="21"/>
       <c r="BR15" s="21"/>
-      <c r="BS15" s="30"/>
-      <c r="BU15" s="35"/>
+      <c r="BS15" s="21"/>
+      <c r="BT15" s="30"/>
+      <c r="BV15" s="35"/>
     </row>
-    <row r="16" spans="1:73" ht="36.75">
+    <row r="16" spans="1:74" ht="38.25">
       <c r="A16" s="10">
         <v>17</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="45">
-        <f t="shared" si="0"/>
+      <c r="C16" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -3260,10 +3514,10 @@
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
-      <c r="U16" s="21" t="s">
+      <c r="U16" s="21"/>
+      <c r="V16" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="V16" s="21"/>
       <c r="W16" s="21"/>
       <c r="X16" s="21"/>
       <c r="Y16" s="21"/>
@@ -3312,22 +3566,25 @@
       <c r="BP16" s="21"/>
       <c r="BQ16" s="21"/>
       <c r="BR16" s="21"/>
-      <c r="BS16" s="30"/>
-      <c r="BU16" s="35"/>
+      <c r="BS16" s="21"/>
+      <c r="BT16" s="30"/>
+      <c r="BV16" s="35"/>
     </row>
-    <row r="17" spans="1:73" ht="48.75">
+    <row r="17" spans="1:74" ht="48.75">
       <c r="A17" s="10">
         <v>18</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="45">
-        <f t="shared" si="0"/>
+      <c r="C17" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="45">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -3343,10 +3600,10 @@
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
-      <c r="U17" s="21" t="s">
+      <c r="U17" s="21"/>
+      <c r="V17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="V17" s="21"/>
       <c r="W17" s="21"/>
       <c r="X17" s="21"/>
       <c r="Y17" s="21"/>
@@ -3392,27 +3649,30 @@
       <c r="BM17" s="21"/>
       <c r="BN17" s="21"/>
       <c r="BO17" s="21"/>
-      <c r="BP17" s="21" t="s">
+      <c r="BP17" s="21"/>
+      <c r="BQ17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="BQ17" s="21"/>
       <c r="BR17" s="21"/>
-      <c r="BS17" s="30"/>
-      <c r="BU17" s="35"/>
+      <c r="BS17" s="21"/>
+      <c r="BT17" s="30"/>
+      <c r="BV17" s="35"/>
     </row>
-    <row r="18" spans="1:73" ht="36.75">
+    <row r="18" spans="1:74" ht="36.75">
       <c r="A18" s="10">
         <v>19</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="45">
-        <f t="shared" si="0"/>
+      <c r="C18" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="45">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -3427,18 +3687,18 @@
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
-      <c r="T18" s="21" t="s">
+      <c r="T18" s="21"/>
+      <c r="U18" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="U18" s="21"/>
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
       <c r="X18" s="21"/>
       <c r="Y18" s="21"/>
-      <c r="Z18" s="21" t="s">
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
       <c r="AC18" s="21"/>
       <c r="AD18" s="21"/>
@@ -3468,10 +3728,10 @@
       <c r="BB18" s="21"/>
       <c r="BC18" s="21"/>
       <c r="BD18" s="21"/>
-      <c r="BE18" s="21" t="s">
+      <c r="BE18" s="21"/>
+      <c r="BF18" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="BF18" s="21"/>
       <c r="BG18" s="21"/>
       <c r="BH18" s="21"/>
       <c r="BI18" s="21"/>
@@ -3484,22 +3744,25 @@
       <c r="BP18" s="21"/>
       <c r="BQ18" s="21"/>
       <c r="BR18" s="21"/>
-      <c r="BS18" s="30"/>
-      <c r="BU18" s="35"/>
+      <c r="BS18" s="21"/>
+      <c r="BT18" s="30"/>
+      <c r="BV18" s="35"/>
     </row>
-    <row r="19" spans="1:73" ht="48.75">
+    <row r="19" spans="1:74" ht="48.75">
       <c r="A19" s="10">
         <v>20</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="45">
-        <f t="shared" si="0"/>
+      <c r="C19" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="45">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -3513,19 +3776,19 @@
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
-      <c r="S19" s="21" t="s">
+      <c r="S19" s="21"/>
+      <c r="T19" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="T19" s="21"/>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
       <c r="X19" s="21"/>
       <c r="Y19" s="21"/>
-      <c r="Z19" s="21" t="s">
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AA19" s="21"/>
       <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
       <c r="AD19" s="21"/>
@@ -3569,22 +3832,25 @@
       <c r="BP19" s="21"/>
       <c r="BQ19" s="21"/>
       <c r="BR19" s="21"/>
-      <c r="BS19" s="30"/>
-      <c r="BU19" s="35"/>
+      <c r="BS19" s="21"/>
+      <c r="BT19" s="30"/>
+      <c r="BV19" s="35"/>
     </row>
-    <row r="20" spans="1:73" ht="36.75">
+    <row r="20" spans="1:74" ht="36.75">
       <c r="A20" s="10">
         <v>22</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="45">
-        <f t="shared" si="0"/>
+      <c r="C20" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="45">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
@@ -3598,10 +3864,10 @@
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
-      <c r="S20" s="21" t="s">
+      <c r="S20" s="21"/>
+      <c r="T20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="T20" s="21"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
@@ -3610,16 +3876,16 @@
       <c r="Z20" s="21"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
-      <c r="AC20" s="21" t="s">
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AD20" s="21"/>
       <c r="AE20" s="21"/>
       <c r="AF20" s="21"/>
-      <c r="AG20" s="21" t="s">
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AH20" s="21"/>
       <c r="AI20" s="21"/>
       <c r="AJ20" s="21"/>
       <c r="AK20" s="21"/>
@@ -3656,22 +3922,25 @@
       <c r="BP20" s="21"/>
       <c r="BQ20" s="21"/>
       <c r="BR20" s="21"/>
-      <c r="BS20" s="30"/>
-      <c r="BU20" s="35"/>
+      <c r="BS20" s="21"/>
+      <c r="BT20" s="30"/>
+      <c r="BV20" s="35"/>
     </row>
-    <row r="21" spans="1:73" ht="24.75">
+    <row r="21" spans="1:74" ht="25.5">
       <c r="A21" s="10">
         <v>23</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="45">
-        <f t="shared" si="0"/>
+      <c r="C21" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -3693,10 +3962,10 @@
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
       <c r="Z21" s="21"/>
-      <c r="AA21" s="21" t="s">
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AB21" s="21"/>
       <c r="AC21" s="21"/>
       <c r="AD21" s="21"/>
       <c r="AE21" s="21"/>
@@ -3739,22 +4008,25 @@
       <c r="BP21" s="21"/>
       <c r="BQ21" s="21"/>
       <c r="BR21" s="21"/>
-      <c r="BS21" s="30"/>
-      <c r="BU21" s="35"/>
+      <c r="BS21" s="21"/>
+      <c r="BT21" s="30"/>
+      <c r="BV21" s="35"/>
     </row>
-    <row r="22" spans="1:73" ht="36.75">
+    <row r="22" spans="1:74" ht="36.75">
       <c r="A22" s="10">
         <v>27</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="45">
-        <f t="shared" si="0"/>
+      <c r="C22" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
@@ -3793,17 +4065,17 @@
       <c r="AO22" s="21"/>
       <c r="AP22" s="21"/>
       <c r="AQ22" s="21"/>
-      <c r="AR22" s="21" t="s">
+      <c r="AR22" s="21"/>
+      <c r="AS22" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AS22" s="21"/>
-      <c r="AT22" s="21" t="s">
+      <c r="AT22" s="21"/>
+      <c r="AU22" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AU22" s="21" t="s">
+      <c r="AV22" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AV22" s="21"/>
       <c r="AW22" s="21"/>
       <c r="AX22" s="21"/>
       <c r="AY22" s="21"/>
@@ -3826,22 +4098,25 @@
       <c r="BP22" s="21"/>
       <c r="BQ22" s="21"/>
       <c r="BR22" s="21"/>
-      <c r="BS22" s="30"/>
-      <c r="BU22" s="35"/>
+      <c r="BS22" s="21"/>
+      <c r="BT22" s="30"/>
+      <c r="BV22" s="35"/>
     </row>
-    <row r="23" spans="1:73" ht="24.75">
+    <row r="23" spans="1:74" ht="25.5">
       <c r="A23" s="10">
         <v>28</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="45">
-        <f t="shared" si="0"/>
+      <c r="C23" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -3880,18 +4155,18 @@
       <c r="AO23" s="21"/>
       <c r="AP23" s="21"/>
       <c r="AQ23" s="21"/>
-      <c r="AR23" s="21" t="s">
+      <c r="AR23" s="21"/>
+      <c r="AS23" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AS23" s="21" t="s">
+      <c r="AT23" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AT23" s="21"/>
       <c r="AU23" s="21"/>
-      <c r="AV23" s="21" t="s">
+      <c r="AV23" s="21"/>
+      <c r="AW23" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AW23" s="21"/>
       <c r="AX23" s="21"/>
       <c r="AY23" s="21"/>
       <c r="AZ23" s="21"/>
@@ -3913,22 +4188,25 @@
       <c r="BP23" s="21"/>
       <c r="BQ23" s="21"/>
       <c r="BR23" s="21"/>
-      <c r="BS23" s="30"/>
-      <c r="BU23" s="35"/>
+      <c r="BS23" s="21"/>
+      <c r="BT23" s="30"/>
+      <c r="BV23" s="35"/>
     </row>
-    <row r="24" spans="1:73" ht="36.75">
+    <row r="24" spans="1:74" ht="36.75">
       <c r="A24" s="10">
         <v>29</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="45">
-        <f t="shared" si="0"/>
+      <c r="C24" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -3967,18 +4245,18 @@
       <c r="AO24" s="21"/>
       <c r="AP24" s="21"/>
       <c r="AQ24" s="21"/>
-      <c r="AR24" s="21" t="s">
+      <c r="AR24" s="21"/>
+      <c r="AS24" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AS24" s="21" t="s">
+      <c r="AT24" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AT24" s="21"/>
       <c r="AU24" s="21"/>
-      <c r="AV24" s="21" t="s">
+      <c r="AV24" s="21"/>
+      <c r="AW24" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AW24" s="21"/>
       <c r="AX24" s="21"/>
       <c r="AY24" s="21"/>
       <c r="AZ24" s="21"/>
@@ -4000,22 +4278,25 @@
       <c r="BP24" s="21"/>
       <c r="BQ24" s="21"/>
       <c r="BR24" s="21"/>
-      <c r="BS24" s="30"/>
-      <c r="BU24" s="35"/>
+      <c r="BS24" s="21"/>
+      <c r="BT24" s="30"/>
+      <c r="BV24" s="35"/>
     </row>
-    <row r="25" spans="1:73" ht="36.75">
+    <row r="25" spans="1:74" ht="36.75">
       <c r="A25" s="10">
         <v>30</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="45">
-        <f t="shared" si="0"/>
+      <c r="C25" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
@@ -4055,13 +4336,13 @@
       <c r="AP25" s="21"/>
       <c r="AQ25" s="21"/>
       <c r="AR25" s="21"/>
-      <c r="AS25" s="21" t="s">
-        <v>138</v>
-      </c>
+      <c r="AS25" s="21"/>
       <c r="AT25" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AU25" s="21"/>
+      <c r="AU25" s="21" t="s">
+        <v>138</v>
+      </c>
       <c r="AV25" s="21"/>
       <c r="AW25" s="21"/>
       <c r="AX25" s="21"/>
@@ -4085,22 +4366,25 @@
       <c r="BP25" s="21"/>
       <c r="BQ25" s="21"/>
       <c r="BR25" s="21"/>
-      <c r="BS25" s="30"/>
-      <c r="BU25" s="35"/>
+      <c r="BS25" s="21"/>
+      <c r="BT25" s="30"/>
+      <c r="BV25" s="35"/>
     </row>
-    <row r="26" spans="1:73" ht="36.75">
+    <row r="26" spans="1:74" ht="36.75">
       <c r="A26" s="10">
         <v>31</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="45">
-        <f t="shared" si="0"/>
+      <c r="C26" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
@@ -4140,13 +4424,13 @@
       <c r="AP26" s="21"/>
       <c r="AQ26" s="21"/>
       <c r="AR26" s="21"/>
-      <c r="AS26" s="21" t="s">
-        <v>138</v>
-      </c>
+      <c r="AS26" s="21"/>
       <c r="AT26" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AU26" s="21"/>
+      <c r="AU26" s="21" t="s">
+        <v>138</v>
+      </c>
       <c r="AV26" s="21"/>
       <c r="AW26" s="21"/>
       <c r="AX26" s="21"/>
@@ -4170,22 +4454,25 @@
       <c r="BP26" s="21"/>
       <c r="BQ26" s="21"/>
       <c r="BR26" s="21"/>
-      <c r="BS26" s="30"/>
-      <c r="BU26" s="35"/>
+      <c r="BS26" s="21"/>
+      <c r="BT26" s="30"/>
+      <c r="BV26" s="35"/>
     </row>
-    <row r="27" spans="1:73" ht="36.75">
+    <row r="27" spans="1:74" ht="36.75">
       <c r="A27" s="10">
         <v>33</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="45">
-        <f t="shared" si="0"/>
+      <c r="C27" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="45">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
@@ -4218,13 +4505,13 @@
       <c r="AI27" s="21"/>
       <c r="AJ27" s="21"/>
       <c r="AK27" s="21"/>
-      <c r="AL27" s="21" t="s">
-        <v>24</v>
-      </c>
+      <c r="AL27" s="21"/>
       <c r="AM27" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AN27" s="21"/>
+      <c r="AN27" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="AO27" s="21"/>
       <c r="AP27" s="21"/>
       <c r="AQ27" s="21"/>
@@ -4255,22 +4542,25 @@
       <c r="BP27" s="21"/>
       <c r="BQ27" s="21"/>
       <c r="BR27" s="21"/>
-      <c r="BS27" s="30"/>
-      <c r="BU27" s="35"/>
+      <c r="BS27" s="21"/>
+      <c r="BT27" s="30"/>
+      <c r="BV27" s="35"/>
     </row>
-    <row r="28" spans="1:73" ht="36.75">
+    <row r="28" spans="1:74" ht="36.75">
       <c r="A28" s="10">
         <v>35</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="45">
-        <f t="shared" si="0"/>
+      <c r="C28" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="45">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -4299,17 +4589,17 @@
       <c r="AE28" s="21"/>
       <c r="AF28" s="21"/>
       <c r="AG28" s="21"/>
-      <c r="AH28" s="21" t="s">
+      <c r="AH28" s="21"/>
+      <c r="AI28" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AI28" s="21" t="s">
+      <c r="AJ28" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AJ28" s="21"/>
-      <c r="AK28" s="21" t="s">
+      <c r="AK28" s="21"/>
+      <c r="AL28" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AL28" s="21"/>
       <c r="AM28" s="21"/>
       <c r="AN28" s="21"/>
       <c r="AO28" s="21"/>
@@ -4342,22 +4632,25 @@
       <c r="BP28" s="21"/>
       <c r="BQ28" s="21"/>
       <c r="BR28" s="21"/>
-      <c r="BS28" s="30"/>
-      <c r="BU28" s="35"/>
+      <c r="BS28" s="21"/>
+      <c r="BT28" s="30"/>
+      <c r="BV28" s="35"/>
     </row>
-    <row r="29" spans="1:73" ht="24.75">
+    <row r="29" spans="1:74" ht="25.5">
       <c r="A29" s="10">
         <v>37</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="45">
-        <f t="shared" si="0"/>
+      <c r="C29" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
@@ -4385,10 +4678,10 @@
       <c r="AD29" s="21"/>
       <c r="AE29" s="21"/>
       <c r="AF29" s="21"/>
-      <c r="AG29" s="21" t="s">
+      <c r="AG29" s="21"/>
+      <c r="AH29" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AH29" s="21"/>
       <c r="AI29" s="21"/>
       <c r="AJ29" s="21"/>
       <c r="AK29" s="21"/>
@@ -4425,22 +4718,25 @@
       <c r="BP29" s="21"/>
       <c r="BQ29" s="21"/>
       <c r="BR29" s="21"/>
-      <c r="BS29" s="30"/>
-      <c r="BU29" s="35"/>
+      <c r="BS29" s="21"/>
+      <c r="BT29" s="30"/>
+      <c r="BV29" s="35"/>
     </row>
-    <row r="30" spans="1:73" ht="60.75">
+    <row r="30" spans="1:74" ht="60.75">
       <c r="A30" s="10">
         <v>50</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="45">
-        <f t="shared" si="0"/>
+      <c r="C30" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -4454,10 +4750,10 @@
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
-      <c r="S30" s="21" t="s">
+      <c r="S30" s="21"/>
+      <c r="T30" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="T30" s="21"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -4466,15 +4762,15 @@
       <c r="Z30" s="21"/>
       <c r="AA30" s="21"/>
       <c r="AB30" s="21"/>
-      <c r="AC30" s="21" t="s">
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
-      <c r="AF30" s="21" t="s">
+      <c r="AF30" s="21"/>
+      <c r="AG30" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AG30" s="21"/>
       <c r="AH30" s="21"/>
       <c r="AI30" s="21"/>
       <c r="AJ30" s="21"/>
@@ -4512,24 +4808,27 @@
       <c r="BP30" s="21"/>
       <c r="BQ30" s="21"/>
       <c r="BR30" s="21"/>
-      <c r="BS30" s="30"/>
-      <c r="BU30" s="35" t="s">
+      <c r="BS30" s="21"/>
+      <c r="BT30" s="30"/>
+      <c r="BV30" s="35" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:73" ht="24.75">
+    <row r="31" spans="1:74" ht="25.5">
       <c r="A31" s="10">
         <v>53</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="45">
-        <f t="shared" si="0"/>
+      <c r="C31" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -4567,10 +4866,10 @@
       <c r="AN31" s="21"/>
       <c r="AO31" s="21"/>
       <c r="AP31" s="21"/>
-      <c r="AQ31" s="21" t="s">
+      <c r="AQ31" s="21"/>
+      <c r="AR31" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AR31" s="21"/>
       <c r="AS31" s="21"/>
       <c r="AT31" s="21"/>
       <c r="AU31" s="21"/>
@@ -4597,22 +4896,25 @@
       <c r="BP31" s="21"/>
       <c r="BQ31" s="21"/>
       <c r="BR31" s="21"/>
-      <c r="BS31" s="30"/>
-      <c r="BU31" s="35"/>
+      <c r="BS31" s="21"/>
+      <c r="BT31" s="30"/>
+      <c r="BV31" s="35"/>
     </row>
-    <row r="32" spans="1:73" ht="15.75">
+    <row r="32" spans="1:74" ht="25.5">
       <c r="A32" s="10">
         <v>54</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="45">
-        <f t="shared" si="0"/>
+      <c r="C32" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="21"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -4664,10 +4966,10 @@
       <c r="BB32" s="21"/>
       <c r="BC32" s="21"/>
       <c r="BD32" s="21"/>
-      <c r="BE32" s="21" t="s">
+      <c r="BE32" s="21"/>
+      <c r="BF32" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="BF32" s="21"/>
       <c r="BG32" s="21"/>
       <c r="BH32" s="21"/>
       <c r="BI32" s="21"/>
@@ -4680,22 +4982,25 @@
       <c r="BP32" s="21"/>
       <c r="BQ32" s="21"/>
       <c r="BR32" s="21"/>
-      <c r="BS32" s="30"/>
-      <c r="BU32" s="35"/>
+      <c r="BS32" s="21"/>
+      <c r="BT32" s="30"/>
+      <c r="BV32" s="35"/>
     </row>
-    <row r="33" spans="1:73" ht="15.75">
+    <row r="33" spans="1:74" ht="25.5">
       <c r="A33" s="10">
         <v>55</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="45">
-        <f t="shared" si="0"/>
+      <c r="C33" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
+      <c r="E33" s="20"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -4748,10 +5053,10 @@
       <c r="BC33" s="21"/>
       <c r="BD33" s="21"/>
       <c r="BE33" s="21"/>
-      <c r="BF33" s="21" t="s">
+      <c r="BF33" s="21"/>
+      <c r="BG33" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="BG33" s="21"/>
       <c r="BH33" s="21"/>
       <c r="BI33" s="21"/>
       <c r="BJ33" s="21"/>
@@ -4763,22 +5068,25 @@
       <c r="BP33" s="21"/>
       <c r="BQ33" s="21"/>
       <c r="BR33" s="21"/>
-      <c r="BS33" s="30"/>
-      <c r="BU33" s="35"/>
+      <c r="BS33" s="21"/>
+      <c r="BT33" s="30"/>
+      <c r="BV33" s="35"/>
     </row>
-    <row r="34" spans="1:73" ht="72.75">
+    <row r="34" spans="1:74" ht="72.75">
       <c r="A34" s="10">
         <v>60</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="45">
-        <f t="shared" si="0"/>
+      <c r="C34" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
+      <c r="E34" s="20"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
@@ -4792,19 +5100,19 @@
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
-      <c r="S34" s="21" t="s">
+      <c r="S34" s="21"/>
+      <c r="T34" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="T34" s="21"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
       <c r="X34" s="21"/>
       <c r="Y34" s="21"/>
-      <c r="Z34" s="21" t="s">
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AA34" s="21"/>
       <c r="AB34" s="21"/>
       <c r="AC34" s="21"/>
       <c r="AD34" s="21"/>
@@ -4848,27 +5156,30 @@
       <c r="BP34" s="21"/>
       <c r="BQ34" s="21"/>
       <c r="BR34" s="21"/>
-      <c r="BS34" s="30"/>
-      <c r="BU34" s="35"/>
+      <c r="BS34" s="21"/>
+      <c r="BT34" s="30"/>
+      <c r="BV34" s="35"/>
     </row>
-    <row r="35" spans="1:73" ht="24.75">
+    <row r="35" spans="1:74" ht="38.25">
       <c r="A35" s="10">
         <v>61</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="45">
-        <f t="shared" si="0"/>
+      <c r="C35" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="21"/>
-      <c r="G35" s="21" t="s">
+      <c r="G35" s="21"/>
+      <c r="H35" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
@@ -4915,10 +5226,10 @@
       <c r="AZ35" s="21"/>
       <c r="BA35" s="21"/>
       <c r="BB35" s="21"/>
-      <c r="BC35" s="21" t="s">
+      <c r="BC35" s="21"/>
+      <c r="BD35" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="BD35" s="21"/>
       <c r="BE35" s="21"/>
       <c r="BF35" s="21"/>
       <c r="BG35" s="21"/>
@@ -4933,22 +5244,25 @@
       <c r="BP35" s="21"/>
       <c r="BQ35" s="21"/>
       <c r="BR35" s="21"/>
-      <c r="BS35" s="30"/>
-      <c r="BU35" s="35"/>
+      <c r="BS35" s="21"/>
+      <c r="BT35" s="30"/>
+      <c r="BV35" s="35"/>
     </row>
-    <row r="36" spans="1:73" ht="36.75">
+    <row r="36" spans="1:74" ht="36.75">
       <c r="A36" s="10">
         <v>62</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="45">
-        <f t="shared" si="0"/>
+      <c r="C36" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
@@ -4981,17 +5295,17 @@
       <c r="AI36" s="21"/>
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
-      <c r="AL36" s="21" t="s">
-        <v>138</v>
-      </c>
+      <c r="AL36" s="21"/>
       <c r="AM36" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AN36" s="21"/>
-      <c r="AO36" s="21" t="s">
+      <c r="AN36" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO36" s="21"/>
+      <c r="AP36" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AP36" s="21"/>
       <c r="AQ36" s="21"/>
       <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
@@ -5020,22 +5334,25 @@
       <c r="BP36" s="21"/>
       <c r="BQ36" s="21"/>
       <c r="BR36" s="21"/>
-      <c r="BS36" s="30"/>
-      <c r="BU36" s="35"/>
+      <c r="BS36" s="21"/>
+      <c r="BT36" s="30"/>
+      <c r="BV36" s="35"/>
     </row>
-    <row r="37" spans="1:73" ht="48.75">
+    <row r="37" spans="1:74" ht="48.75">
       <c r="A37" s="10">
         <v>64</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="45">
-        <f t="shared" si="0"/>
+      <c r="C37" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
@@ -5068,17 +5385,17 @@
       <c r="AI37" s="21"/>
       <c r="AJ37" s="21"/>
       <c r="AK37" s="21"/>
-      <c r="AL37" s="21" t="s">
-        <v>138</v>
-      </c>
+      <c r="AL37" s="21"/>
       <c r="AM37" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AN37" s="21"/>
-      <c r="AO37" s="21" t="s">
+      <c r="AN37" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO37" s="21"/>
+      <c r="AP37" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AP37" s="21"/>
       <c r="AQ37" s="21"/>
       <c r="AR37" s="21"/>
       <c r="AS37" s="21"/>
@@ -5107,22 +5424,25 @@
       <c r="BP37" s="21"/>
       <c r="BQ37" s="21"/>
       <c r="BR37" s="21"/>
-      <c r="BS37" s="30"/>
-      <c r="BU37" s="35"/>
+      <c r="BS37" s="21"/>
+      <c r="BT37" s="30"/>
+      <c r="BV37" s="35"/>
     </row>
-    <row r="38" spans="1:73" ht="24.75">
+    <row r="38" spans="1:74" ht="25.5">
       <c r="A38" s="10">
         <v>66</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="45">
-        <f t="shared" si="0"/>
+      <c r="C38" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
@@ -5164,10 +5484,10 @@
       <c r="AR38" s="21"/>
       <c r="AS38" s="21"/>
       <c r="AT38" s="21"/>
-      <c r="AU38" s="21" t="s">
+      <c r="AU38" s="21"/>
+      <c r="AV38" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AV38" s="21"/>
       <c r="AW38" s="21"/>
       <c r="AX38" s="21"/>
       <c r="AY38" s="21"/>
@@ -5190,22 +5510,25 @@
       <c r="BP38" s="21"/>
       <c r="BQ38" s="21"/>
       <c r="BR38" s="21"/>
-      <c r="BS38" s="30"/>
-      <c r="BU38" s="35"/>
+      <c r="BS38" s="21"/>
+      <c r="BT38" s="30"/>
+      <c r="BV38" s="35"/>
     </row>
-    <row r="39" spans="1:73" ht="24.75">
+    <row r="39" spans="1:74" ht="25.5">
       <c r="A39" s="10">
         <v>67</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="45">
-        <f t="shared" si="0"/>
+      <c r="C39" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -5248,10 +5571,10 @@
       <c r="AS39" s="21"/>
       <c r="AT39" s="21"/>
       <c r="AU39" s="21"/>
-      <c r="AV39" s="21" t="s">
+      <c r="AV39" s="21"/>
+      <c r="AW39" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AW39" s="21"/>
       <c r="AX39" s="21"/>
       <c r="AY39" s="21"/>
       <c r="AZ39" s="21"/>
@@ -5273,22 +5596,25 @@
       <c r="BP39" s="21"/>
       <c r="BQ39" s="21"/>
       <c r="BR39" s="21"/>
-      <c r="BS39" s="30"/>
-      <c r="BU39" s="35"/>
+      <c r="BS39" s="21"/>
+      <c r="BT39" s="30"/>
+      <c r="BV39" s="35"/>
     </row>
-    <row r="40" spans="1:73" ht="36.75">
+    <row r="40" spans="1:74" ht="36.75">
       <c r="A40" s="10">
         <v>68</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="45">
-        <f t="shared" si="0"/>
+      <c r="C40" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
+      <c r="E40" s="20"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -5329,10 +5655,10 @@
       <c r="AQ40" s="21"/>
       <c r="AR40" s="21"/>
       <c r="AS40" s="21"/>
-      <c r="AT40" s="21" t="s">
+      <c r="AT40" s="21"/>
+      <c r="AU40" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AU40" s="21"/>
       <c r="AV40" s="21"/>
       <c r="AW40" s="21"/>
       <c r="AX40" s="21"/>
@@ -5356,22 +5682,25 @@
       <c r="BP40" s="21"/>
       <c r="BQ40" s="21"/>
       <c r="BR40" s="21"/>
-      <c r="BS40" s="30"/>
-      <c r="BU40" s="35"/>
+      <c r="BS40" s="21"/>
+      <c r="BT40" s="30"/>
+      <c r="BV40" s="35"/>
     </row>
-    <row r="41" spans="1:73" ht="36.75">
+    <row r="41" spans="1:74" ht="36.75">
       <c r="A41" s="10">
         <v>69</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="45">
-        <f t="shared" si="0"/>
+      <c r="C41" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="21"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -5411,10 +5740,10 @@
       <c r="AP41" s="21"/>
       <c r="AQ41" s="21"/>
       <c r="AR41" s="21"/>
-      <c r="AS41" s="21" t="s">
+      <c r="AS41" s="21"/>
+      <c r="AT41" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AT41" s="21"/>
       <c r="AU41" s="21"/>
       <c r="AV41" s="21"/>
       <c r="AW41" s="21"/>
@@ -5439,22 +5768,25 @@
       <c r="BP41" s="21"/>
       <c r="BQ41" s="21"/>
       <c r="BR41" s="21"/>
-      <c r="BS41" s="30"/>
-      <c r="BU41" s="35"/>
+      <c r="BS41" s="21"/>
+      <c r="BT41" s="30"/>
+      <c r="BV41" s="35"/>
     </row>
-    <row r="42" spans="1:73" ht="60.75">
+    <row r="42" spans="1:74" ht="60.75">
       <c r="A42" s="10">
         <v>73</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="45">
-        <f t="shared" si="0"/>
+      <c r="C42" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -5468,10 +5800,10 @@
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
-      <c r="S42" s="21" t="s">
+      <c r="S42" s="21"/>
+      <c r="T42" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="T42" s="21"/>
       <c r="U42" s="21"/>
       <c r="V42" s="21"/>
       <c r="W42" s="21"/>
@@ -5481,10 +5813,10 @@
       <c r="AA42" s="21"/>
       <c r="AB42" s="21"/>
       <c r="AC42" s="21"/>
-      <c r="AD42" s="21" t="s">
+      <c r="AD42" s="21"/>
+      <c r="AE42" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AE42" s="21"/>
       <c r="AF42" s="21"/>
       <c r="AG42" s="21"/>
       <c r="AH42" s="21"/>
@@ -5524,22 +5856,25 @@
       <c r="BP42" s="21"/>
       <c r="BQ42" s="21"/>
       <c r="BR42" s="21"/>
-      <c r="BS42" s="30"/>
-      <c r="BU42" s="35"/>
+      <c r="BS42" s="21"/>
+      <c r="BT42" s="30"/>
+      <c r="BV42" s="35"/>
     </row>
-    <row r="43" spans="1:73" ht="24.75">
+    <row r="43" spans="1:74" ht="25.5">
       <c r="A43" s="10">
         <v>74</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="45">
-        <f t="shared" si="0"/>
+      <c r="C43" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="45">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
       <c r="H43" s="21"/>
@@ -5569,14 +5904,14 @@
       <c r="AF43" s="21"/>
       <c r="AG43" s="21"/>
       <c r="AH43" s="21"/>
-      <c r="AI43" s="21" t="s">
+      <c r="AI43" s="21"/>
+      <c r="AJ43" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AJ43" s="21"/>
-      <c r="AK43" s="21" t="s">
+      <c r="AK43" s="21"/>
+      <c r="AL43" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AL43" s="21"/>
       <c r="AM43" s="21"/>
       <c r="AN43" s="21"/>
       <c r="AO43" s="21"/>
@@ -5609,22 +5944,25 @@
       <c r="BP43" s="21"/>
       <c r="BQ43" s="21"/>
       <c r="BR43" s="21"/>
-      <c r="BS43" s="30"/>
-      <c r="BU43" s="35"/>
+      <c r="BS43" s="21"/>
+      <c r="BT43" s="30"/>
+      <c r="BV43" s="35"/>
     </row>
-    <row r="44" spans="1:73" ht="48.75">
+    <row r="44" spans="1:74" ht="48.75">
       <c r="A44" s="10">
         <v>75</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="45">
-        <f t="shared" si="0"/>
+      <c r="C44" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
+      <c r="E44" s="20"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
       <c r="H44" s="21"/>
@@ -5669,18 +6007,18 @@
       <c r="AU44" s="21"/>
       <c r="AV44" s="21"/>
       <c r="AW44" s="21"/>
-      <c r="AX44" s="21" t="s">
+      <c r="AX44" s="21"/>
+      <c r="AY44" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AY44" s="21"/>
       <c r="AZ44" s="21"/>
-      <c r="BA44" s="21" t="s">
+      <c r="BA44" s="21"/>
+      <c r="BB44" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="BB44" s="21" t="s">
+      <c r="BC44" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="BC44" s="21"/>
       <c r="BD44" s="21"/>
       <c r="BE44" s="21"/>
       <c r="BF44" s="21"/>
@@ -5696,22 +6034,25 @@
       <c r="BP44" s="21"/>
       <c r="BQ44" s="21"/>
       <c r="BR44" s="21"/>
-      <c r="BS44" s="30"/>
-      <c r="BU44" s="35"/>
+      <c r="BS44" s="21"/>
+      <c r="BT44" s="30"/>
+      <c r="BV44" s="35"/>
     </row>
-    <row r="45" spans="1:73" ht="36.75">
+    <row r="45" spans="1:74" ht="38.25">
       <c r="A45" s="10">
         <v>77</v>
       </c>
       <c r="B45" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="45">
-        <f t="shared" si="0"/>
+      <c r="C45" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
+      <c r="E45" s="20"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -5719,10 +6060,10 @@
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
-      <c r="M45" s="21" t="s">
+      <c r="M45" s="21"/>
+      <c r="N45" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
@@ -5779,22 +6120,25 @@
       <c r="BP45" s="21"/>
       <c r="BQ45" s="21"/>
       <c r="BR45" s="21"/>
-      <c r="BS45" s="30"/>
-      <c r="BU45" s="35"/>
+      <c r="BS45" s="21"/>
+      <c r="BT45" s="30"/>
+      <c r="BV45" s="35"/>
     </row>
-    <row r="46" spans="1:73" ht="36.75">
+    <row r="46" spans="1:74" ht="38.25">
       <c r="A46" s="10">
         <v>78</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="45">
-        <f t="shared" si="0"/>
+      <c r="C46" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
+      <c r="E46" s="20"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
@@ -5839,18 +6183,18 @@
       <c r="AU46" s="21"/>
       <c r="AV46" s="21"/>
       <c r="AW46" s="21"/>
-      <c r="AX46" s="21" t="s">
+      <c r="AX46" s="21"/>
+      <c r="AY46" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AY46" s="21"/>
       <c r="AZ46" s="21"/>
-      <c r="BA46" s="21" t="s">
-        <v>138</v>
-      </c>
+      <c r="BA46" s="21"/>
       <c r="BB46" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="BC46" s="21"/>
+      <c r="BC46" s="21" t="s">
+        <v>138</v>
+      </c>
       <c r="BD46" s="21"/>
       <c r="BE46" s="21"/>
       <c r="BF46" s="21"/>
@@ -5866,22 +6210,25 @@
       <c r="BP46" s="21"/>
       <c r="BQ46" s="21"/>
       <c r="BR46" s="21"/>
-      <c r="BS46" s="30"/>
-      <c r="BU46" s="35"/>
+      <c r="BS46" s="21"/>
+      <c r="BT46" s="30"/>
+      <c r="BV46" s="35"/>
     </row>
-    <row r="47" spans="1:73" ht="60.75">
+    <row r="47" spans="1:74" ht="76.5">
       <c r="A47" s="10">
         <v>79</v>
       </c>
       <c r="B47" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="45">
-        <f t="shared" si="0"/>
+      <c r="C47" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="21"/>
+      <c r="E47" s="20"/>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -5947,22 +6294,25 @@
       <c r="BP47" s="21"/>
       <c r="BQ47" s="21"/>
       <c r="BR47" s="21"/>
-      <c r="BS47" s="30"/>
-      <c r="BU47" s="35"/>
+      <c r="BS47" s="21"/>
+      <c r="BT47" s="30"/>
+      <c r="BV47" s="35"/>
     </row>
-    <row r="48" spans="1:73" ht="36.75">
+    <row r="48" spans="1:74" ht="36.75">
       <c r="A48" s="10">
         <v>83</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="45">
-        <f t="shared" si="0"/>
+      <c r="C48" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="21"/>
+      <c r="E48" s="20"/>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
@@ -5995,10 +6345,10 @@
       <c r="AI48" s="21"/>
       <c r="AJ48" s="21"/>
       <c r="AK48" s="21"/>
-      <c r="AL48" s="21" t="s">
+      <c r="AL48" s="21"/>
+      <c r="AM48" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AM48" s="21"/>
       <c r="AN48" s="21"/>
       <c r="AO48" s="21"/>
       <c r="AP48" s="21"/>
@@ -6030,22 +6380,25 @@
       <c r="BP48" s="21"/>
       <c r="BQ48" s="21"/>
       <c r="BR48" s="21"/>
-      <c r="BS48" s="30"/>
-      <c r="BU48" s="35"/>
+      <c r="BS48" s="21"/>
+      <c r="BT48" s="30"/>
+      <c r="BV48" s="35"/>
     </row>
-    <row r="49" spans="1:73" ht="24.75">
+    <row r="49" spans="1:74" ht="25.5">
       <c r="A49" s="10">
         <v>84</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="45">
-        <f t="shared" si="0"/>
+      <c r="C49" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="21"/>
+      <c r="E49" s="20"/>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
@@ -6059,10 +6412,10 @@
       <c r="P49" s="21"/>
       <c r="Q49" s="21"/>
       <c r="R49" s="21"/>
-      <c r="S49" s="21" t="s">
+      <c r="S49" s="21"/>
+      <c r="T49" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="T49" s="21"/>
       <c r="U49" s="21"/>
       <c r="V49" s="21"/>
       <c r="W49" s="21"/>
@@ -6113,22 +6466,25 @@
       <c r="BP49" s="21"/>
       <c r="BQ49" s="21"/>
       <c r="BR49" s="21"/>
-      <c r="BS49" s="30"/>
-      <c r="BU49" s="35"/>
+      <c r="BS49" s="21"/>
+      <c r="BT49" s="30"/>
+      <c r="BV49" s="35"/>
     </row>
-    <row r="50" spans="1:73" ht="36.75">
+    <row r="50" spans="1:74" ht="36.75">
       <c r="A50" s="10">
         <v>85</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="45">
-        <f t="shared" si="0"/>
+      <c r="C50" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" s="45">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
+      <c r="E50" s="20"/>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
@@ -6142,10 +6498,10 @@
       <c r="P50" s="21"/>
       <c r="Q50" s="21"/>
       <c r="R50" s="21"/>
-      <c r="S50" s="21" t="s">
+      <c r="S50" s="21"/>
+      <c r="T50" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="T50" s="21"/>
       <c r="U50" s="21"/>
       <c r="V50" s="21"/>
       <c r="W50" s="21"/>
@@ -6196,22 +6552,25 @@
       <c r="BP50" s="21"/>
       <c r="BQ50" s="21"/>
       <c r="BR50" s="21"/>
-      <c r="BS50" s="30"/>
-      <c r="BU50" s="35"/>
+      <c r="BS50" s="21"/>
+      <c r="BT50" s="30"/>
+      <c r="BV50" s="35"/>
     </row>
-    <row r="51" spans="1:73" ht="36.75">
+    <row r="51" spans="1:74" ht="38.25">
       <c r="A51" s="10">
         <v>86</v>
       </c>
       <c r="B51" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="45">
-        <f t="shared" si="0"/>
+      <c r="C51" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="21"/>
+      <c r="E51" s="20"/>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
@@ -6225,10 +6584,10 @@
       <c r="P51" s="21"/>
       <c r="Q51" s="21"/>
       <c r="R51" s="21"/>
-      <c r="S51" s="21" t="s">
+      <c r="S51" s="21"/>
+      <c r="T51" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="T51" s="21"/>
       <c r="U51" s="21"/>
       <c r="V51" s="21"/>
       <c r="W51" s="21"/>
@@ -6279,22 +6638,25 @@
       <c r="BP51" s="21"/>
       <c r="BQ51" s="21"/>
       <c r="BR51" s="21"/>
-      <c r="BS51" s="30"/>
-      <c r="BU51" s="35"/>
+      <c r="BS51" s="21"/>
+      <c r="BT51" s="30"/>
+      <c r="BV51" s="35"/>
     </row>
-    <row r="52" spans="1:73" ht="48.75">
+    <row r="52" spans="1:74" ht="48.75">
       <c r="A52" s="10">
         <v>87</v>
       </c>
       <c r="B52" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="45">
-        <f t="shared" si="0"/>
+      <c r="C52" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21"/>
+      <c r="E52" s="20"/>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -6308,10 +6670,10 @@
       <c r="P52" s="21"/>
       <c r="Q52" s="21"/>
       <c r="R52" s="21"/>
-      <c r="S52" s="21" t="s">
+      <c r="S52" s="21"/>
+      <c r="T52" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="T52" s="21"/>
       <c r="U52" s="21"/>
       <c r="V52" s="21"/>
       <c r="W52" s="21"/>
@@ -6362,22 +6724,25 @@
       <c r="BP52" s="21"/>
       <c r="BQ52" s="21"/>
       <c r="BR52" s="21"/>
-      <c r="BS52" s="30"/>
-      <c r="BU52" s="35"/>
+      <c r="BS52" s="21"/>
+      <c r="BT52" s="30"/>
+      <c r="BV52" s="35"/>
     </row>
-    <row r="53" spans="1:73" ht="78.75">
+    <row r="53" spans="1:74" ht="78.75">
       <c r="A53" s="25">
         <v>88</v>
       </c>
       <c r="B53" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C53" s="45">
-        <f t="shared" si="0"/>
+      <c r="C53" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
+      <c r="E53" s="20"/>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
@@ -6443,22 +6808,25 @@
       <c r="BP53" s="21"/>
       <c r="BQ53" s="21"/>
       <c r="BR53" s="21"/>
-      <c r="BS53" s="30"/>
-      <c r="BU53" s="35"/>
+      <c r="BS53" s="21"/>
+      <c r="BT53" s="30"/>
+      <c r="BV53" s="35"/>
     </row>
-    <row r="54" spans="1:73" ht="33.75">
+    <row r="54" spans="1:74" ht="51">
       <c r="A54" s="25">
         <v>90</v>
       </c>
       <c r="B54" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="45">
-        <f t="shared" si="0"/>
+      <c r="C54" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
+      <c r="E54" s="20"/>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
@@ -6524,22 +6892,25 @@
       <c r="BP54" s="21"/>
       <c r="BQ54" s="21"/>
       <c r="BR54" s="21"/>
-      <c r="BS54" s="30"/>
-      <c r="BU54" s="35"/>
+      <c r="BS54" s="21"/>
+      <c r="BT54" s="30"/>
+      <c r="BV54" s="35"/>
     </row>
-    <row r="55" spans="1:73" ht="56.25">
+    <row r="55" spans="1:74" ht="56.25">
       <c r="A55" s="25">
         <v>91</v>
       </c>
       <c r="B55" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="45">
-        <f t="shared" si="0"/>
+      <c r="C55" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="D55" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="21"/>
+      <c r="E55" s="20"/>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
@@ -6605,22 +6976,25 @@
       <c r="BP55" s="21"/>
       <c r="BQ55" s="21"/>
       <c r="BR55" s="21"/>
-      <c r="BS55" s="30"/>
-      <c r="BU55" s="35"/>
+      <c r="BS55" s="21"/>
+      <c r="BT55" s="30"/>
+      <c r="BV55" s="35"/>
     </row>
-    <row r="56" spans="1:73" ht="78.75">
+    <row r="56" spans="1:74" ht="78.75">
       <c r="A56" s="25">
         <v>92</v>
       </c>
       <c r="B56" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C56" s="45">
-        <f t="shared" si="0"/>
+      <c r="C56" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="21"/>
+      <c r="E56" s="20"/>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
@@ -6686,22 +7060,25 @@
       <c r="BP56" s="21"/>
       <c r="BQ56" s="21"/>
       <c r="BR56" s="21"/>
-      <c r="BS56" s="30"/>
-      <c r="BU56" s="35"/>
+      <c r="BS56" s="21"/>
+      <c r="BT56" s="30"/>
+      <c r="BV56" s="35"/>
     </row>
-    <row r="57" spans="1:73" ht="22.5">
+    <row r="57" spans="1:74" ht="22.5">
       <c r="A57" s="25">
         <v>94</v>
       </c>
       <c r="B57" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="45">
-        <f t="shared" si="0"/>
+      <c r="C57" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="D57" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="21"/>
+      <c r="E57" s="20"/>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
       <c r="H57" s="21"/>
@@ -6767,22 +7144,25 @@
       <c r="BP57" s="21"/>
       <c r="BQ57" s="21"/>
       <c r="BR57" s="21"/>
-      <c r="BS57" s="30"/>
-      <c r="BU57" s="35"/>
+      <c r="BS57" s="21"/>
+      <c r="BT57" s="30"/>
+      <c r="BV57" s="35"/>
     </row>
-    <row r="58" spans="1:73" ht="33.75">
+    <row r="58" spans="1:74" ht="33.75">
       <c r="A58" s="25">
         <v>95</v>
       </c>
       <c r="B58" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="45">
-        <f t="shared" si="0"/>
+      <c r="C58" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="21"/>
+      <c r="E58" s="20"/>
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
@@ -6848,22 +7228,25 @@
       <c r="BP58" s="21"/>
       <c r="BQ58" s="21"/>
       <c r="BR58" s="21"/>
-      <c r="BS58" s="30"/>
-      <c r="BU58" s="35"/>
+      <c r="BS58" s="21"/>
+      <c r="BT58" s="30"/>
+      <c r="BV58" s="35"/>
     </row>
-    <row r="59" spans="1:73" ht="67.5">
+    <row r="59" spans="1:74" ht="67.5">
       <c r="A59" s="25">
         <v>96</v>
       </c>
       <c r="B59" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="45">
-        <f t="shared" si="0"/>
+      <c r="C59" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="21"/>
+      <c r="E59" s="20"/>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
@@ -6929,22 +7312,25 @@
       <c r="BP59" s="21"/>
       <c r="BQ59" s="21"/>
       <c r="BR59" s="21"/>
-      <c r="BS59" s="30"/>
-      <c r="BU59" s="35"/>
+      <c r="BS59" s="21"/>
+      <c r="BT59" s="30"/>
+      <c r="BV59" s="35"/>
     </row>
-    <row r="60" spans="1:73" ht="22.5">
+    <row r="60" spans="1:74" ht="25.5">
       <c r="A60" s="25">
         <v>97</v>
       </c>
       <c r="B60" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="45">
-        <f t="shared" si="0"/>
+      <c r="C60" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="21"/>
+      <c r="E60" s="20"/>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
@@ -7010,22 +7396,27 @@
       <c r="BP60" s="21"/>
       <c r="BQ60" s="21"/>
       <c r="BR60" s="21"/>
-      <c r="BS60" s="30"/>
-      <c r="BU60" s="35"/>
+      <c r="BS60" s="21"/>
+      <c r="BT60" s="30"/>
+      <c r="BV60" s="35"/>
     </row>
-    <row r="61" spans="1:73" ht="22.5">
+    <row r="61" spans="1:74" ht="25.5">
       <c r="A61" s="25">
         <v>98</v>
       </c>
       <c r="B61" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="45">
-        <f t="shared" si="0"/>
+      <c r="C61" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="21"/>
+      <c r="E61" s="20" t="s">
+        <v>188</v>
+      </c>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
@@ -7091,22 +7482,25 @@
       <c r="BP61" s="21"/>
       <c r="BQ61" s="21"/>
       <c r="BR61" s="21"/>
-      <c r="BS61" s="30"/>
-      <c r="BU61" s="35"/>
+      <c r="BS61" s="21"/>
+      <c r="BT61" s="30"/>
+      <c r="BV61" s="35"/>
     </row>
-    <row r="62" spans="1:73" ht="78.75">
+    <row r="62" spans="1:74" ht="78.75">
       <c r="A62" s="25">
         <v>99</v>
       </c>
       <c r="B62" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="45">
-        <f t="shared" si="0"/>
+      <c r="C62" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="21"/>
+      <c r="E62" s="20"/>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
@@ -7172,22 +7566,25 @@
       <c r="BP62" s="21"/>
       <c r="BQ62" s="21"/>
       <c r="BR62" s="21"/>
-      <c r="BS62" s="30"/>
-      <c r="BU62" s="35"/>
+      <c r="BS62" s="21"/>
+      <c r="BT62" s="30"/>
+      <c r="BV62" s="35"/>
     </row>
-    <row r="63" spans="1:73" ht="33.75">
+    <row r="63" spans="1:74" ht="33.75">
       <c r="A63" s="25">
         <v>100</v>
       </c>
       <c r="B63" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="45">
-        <f t="shared" si="0"/>
+      <c r="C63" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="21"/>
+      <c r="E63" s="20"/>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
@@ -7253,22 +7650,25 @@
       <c r="BP63" s="21"/>
       <c r="BQ63" s="21"/>
       <c r="BR63" s="21"/>
-      <c r="BS63" s="30"/>
-      <c r="BU63" s="35"/>
+      <c r="BS63" s="21"/>
+      <c r="BT63" s="30"/>
+      <c r="BV63" s="35"/>
     </row>
-    <row r="64" spans="1:73" ht="33.75">
+    <row r="64" spans="1:74" ht="33.75">
       <c r="A64" s="25">
         <v>101</v>
       </c>
       <c r="B64" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="45">
-        <f t="shared" si="0"/>
+      <c r="C64" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="21"/>
+      <c r="E64" s="20"/>
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
@@ -7334,22 +7734,25 @@
       <c r="BP64" s="21"/>
       <c r="BQ64" s="21"/>
       <c r="BR64" s="21"/>
-      <c r="BS64" s="30"/>
-      <c r="BU64" s="35"/>
+      <c r="BS64" s="21"/>
+      <c r="BT64" s="30"/>
+      <c r="BV64" s="35"/>
     </row>
-    <row r="65" spans="1:73" ht="33.75">
+    <row r="65" spans="1:74" ht="33.75">
       <c r="A65" s="25">
         <v>102</v>
       </c>
       <c r="B65" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="45">
-        <f t="shared" si="0"/>
+      <c r="C65" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="21"/>
+      <c r="E65" s="20"/>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
@@ -7415,22 +7818,25 @@
       <c r="BP65" s="21"/>
       <c r="BQ65" s="21"/>
       <c r="BR65" s="21"/>
-      <c r="BS65" s="30"/>
-      <c r="BU65" s="35"/>
+      <c r="BS65" s="21"/>
+      <c r="BT65" s="30"/>
+      <c r="BV65" s="35"/>
     </row>
-    <row r="66" spans="1:73" ht="23.25" thickBot="1">
+    <row r="66" spans="1:74" ht="39" thickBot="1">
       <c r="A66" s="25">
         <v>103</v>
       </c>
       <c r="B66" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="45">
-        <f t="shared" si="0"/>
+      <c r="C66" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="23"/>
+      <c r="E66" s="22"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
@@ -7496,14 +7902,31 @@
       <c r="BP66" s="23"/>
       <c r="BQ66" s="23"/>
       <c r="BR66" s="23"/>
-      <c r="BS66" s="31"/>
-      <c r="BT66" s="23"/>
-      <c r="BU66" s="36"/>
+      <c r="BS66" s="23"/>
+      <c r="BT66" s="31"/>
+      <c r="BU66" s="23"/>
+      <c r="BV66" s="36"/>
+    </row>
+    <row r="67" spans="1:74" ht="38.25">
+      <c r="A67" s="54">
+        <v>998</v>
+      </c>
+      <c r="B67" s="55"/>
+      <c r="C67" s="51" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:74" ht="38.25">
+      <c r="A68" s="54">
+        <v>999</v>
+      </c>
+      <c r="B68" s="55"/>
+      <c r="C68" s="51" t="s">
+        <v>192</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A4:B64">
-    <sortCondition ref="A3"/>
-  </sortState>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="9.8425196850393706E-2" right="9.8425196850393706E-2" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -7515,8 +7938,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7527,8 +7951,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>